--- a/Scheduling/Aux&Cap/aux_cap.xlsx
+++ b/Scheduling/Aux&Cap/aux_cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Music\mallaTurnos\Malla_campañas\Dimensioning\Scheduling\Aux&amp;Cap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAE40A5-4AEB-4CAE-B3C2-CFABDFCF84F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F7C95-EBE5-4BB4-AFF4-A25ED55E75F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WL" sheetId="2" r:id="rId1"/>
@@ -1320,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A1D211-FAAC-49C5-ACA7-024BB4B81C18}">
-  <dimension ref="B5:BB69"/>
+  <dimension ref="B2:BB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L76" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="U110" sqref="U110"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,6 +1331,80 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>13</v>
+      </c>
+      <c r="R2">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>17</v>
+      </c>
+      <c r="V2">
+        <v>18</v>
+      </c>
+      <c r="W2">
+        <v>19</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>21</v>
+      </c>
+      <c r="Z2">
+        <v>22</v>
+      </c>
+      <c r="AA2">
+        <v>23</v>
+      </c>
+      <c r="AB2">
+        <v>24</v>
+      </c>
+    </row>
     <row r="5" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -1340,76 +1414,76 @@
         <v>1</v>
       </c>
       <c r="E6" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>2</v>
       </c>
       <c r="AC6" s="25"/>
       <c r="AD6" s="25">
@@ -1576,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -1695,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1814,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
@@ -1933,16 +2007,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -2055,16 +2129,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
@@ -2177,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="8">
         <v>1</v>
@@ -2198,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="8">
         <v>1</v>
@@ -2225,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="W13" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X13" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="8">
         <v>1</v>
@@ -2299,16 +2373,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="8">
         <v>1</v>
@@ -2320,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" s="8">
         <v>1</v>
@@ -2350,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="Y14" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="8">
         <v>1</v>
@@ -2421,16 +2495,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J15" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="8">
         <v>1</v>
@@ -2442,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="8">
         <v>1</v>
@@ -2472,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="Z15" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="8">
         <v>1</v>
@@ -2543,16 +2617,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K16" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M16" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="8">
         <v>1</v>
@@ -2564,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T16" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16" s="8">
         <v>1</v>
@@ -2594,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB16" s="10">
         <v>1</v>
@@ -2647,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="8">
         <v>1</v>
@@ -2665,16 +2739,16 @@
         <v>1</v>
       </c>
       <c r="K17" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N17" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17" s="8">
         <v>1</v>
@@ -2695,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17" s="8">
         <v>1</v>
@@ -2716,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="AB17" s="33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC17" s="45"/>
       <c r="AD17" s="45"/>
@@ -2772,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
@@ -2784,16 +2858,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M18" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N18" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O18" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P18" s="8">
         <v>1</v>
@@ -2814,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W18" s="8">
         <v>1</v>
@@ -2893,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
@@ -2905,13 +2979,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N19" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O19" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P19" s="8">
         <v>1</v>
@@ -3015,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="8">
         <v>1</v>
@@ -3027,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="N20" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O20" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P20" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="24">
         <v>1</v>
@@ -3137,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" s="8">
         <v>1</v>
@@ -3149,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="O21" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P21" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R21" s="8">
         <v>1</v>
@@ -3259,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="8">
         <v>1</v>
@@ -3271,13 +3345,13 @@
         <v>1</v>
       </c>
       <c r="P22" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R22" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S22" s="8">
         <v>1</v>
@@ -3390,16 +3464,16 @@
         <v>1</v>
       </c>
       <c r="P23" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R23" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S23" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T23" s="8">
         <v>1</v>
@@ -3512,16 +3586,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R24" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S24" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T24" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U24" s="8">
         <v>1</v>
@@ -3530,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="W24" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X24" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y24" s="8">
         <v>1</v>
@@ -3634,16 +3708,16 @@
         <v>1</v>
       </c>
       <c r="R25" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S25" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T25" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U25" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25" s="8">
         <v>1</v>
@@ -3655,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="Y25" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z25" s="8">
         <v>1</v>
@@ -3756,16 +3830,16 @@
         <v>1</v>
       </c>
       <c r="S26" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T26" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U26" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V26" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W26" s="8">
         <v>1</v>
@@ -3777,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="Z26" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA26" s="8">
         <v>1</v>
@@ -3860,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O27" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P27" s="8">
         <v>1</v>
@@ -3878,16 +3952,16 @@
         <v>1</v>
       </c>
       <c r="T27" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U27" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V27" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W27" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X27" s="8">
         <v>1</v>
@@ -3899,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB27" s="10">
         <v>1</v>
@@ -3952,16 +4026,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F28" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G28" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H28" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I28" s="8">
         <v>1</v>
@@ -3985,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="P28" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R28" s="43">
         <v>1</v>
@@ -4000,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="U28" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V28" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W28" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X28" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y28" s="8">
         <v>1</v>
@@ -4021,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="AB28" s="33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC28" s="45"/>
       <c r="AD28" s="45"/>
@@ -4080,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J29" s="8">
         <v>1</v>
@@ -4107,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S29" s="8">
         <v>1</v>
@@ -4119,16 +4193,16 @@
         <v>1</v>
       </c>
       <c r="V29" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W29" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X29" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y29" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="8">
         <v>1</v>
@@ -4202,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -4229,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T30" s="8">
         <v>1</v>
@@ -4241,16 +4315,16 @@
         <v>1</v>
       </c>
       <c r="W30" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X30" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y30" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z30" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="8">
         <v>1</v>
@@ -4324,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L31" s="8">
         <v>1</v>
@@ -4351,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U31" s="8">
         <v>1</v>
@@ -4363,16 +4437,16 @@
         <v>1</v>
       </c>
       <c r="X31" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y31" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z31" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA31" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB31" s="10">
         <v>1</v>
@@ -4446,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M32" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N32" s="8">
         <v>1</v>
@@ -4473,10 +4547,10 @@
         <v>1</v>
       </c>
       <c r="U32" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V32" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W32" s="8">
         <v>1</v>
@@ -4485,16 +4559,16 @@
         <v>1</v>
       </c>
       <c r="Y32" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z32" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="42">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AB32" s="39">
+        <v>5</v>
       </c>
       <c r="AC32" s="25"/>
       <c r="AD32" s="25">
@@ -4607,13 +4681,13 @@
         <v>1</v>
       </c>
       <c r="Z33" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="42">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AB33" s="39">
+        <v>6</v>
       </c>
       <c r="AC33" s="25"/>
       <c r="AD33" s="25">
@@ -4729,10 +4803,10 @@
         <v>1</v>
       </c>
       <c r="AA34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="42">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AB34" s="39">
+        <v>7</v>
       </c>
       <c r="AC34" s="25"/>
       <c r="AD34" s="25">
@@ -4850,8 +4924,8 @@
       <c r="AA35" s="8">
         <v>1</v>
       </c>
-      <c r="AB35" s="42">
-        <v>0</v>
+      <c r="AB35" s="39">
+        <v>8</v>
       </c>
       <c r="AC35" s="25"/>
       <c r="AD35" s="25">
@@ -5020,76 +5094,76 @@
         <v>1</v>
       </c>
       <c r="E37" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA37" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AB37" s="12">
+        <v>3</v>
       </c>
       <c r="AC37" s="25"/>
       <c r="AD37" s="25">
@@ -6065,9 +6139,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074AD26D-AE6A-42FA-9F9E-5161FE234D78}">
-  <dimension ref="B5:AU72"/>
+  <dimension ref="B3:AU72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:V41"/>
     </sheetView>
   </sheetViews>
@@ -6076,6 +6150,118 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>14</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+      <c r="T3">
+        <v>16</v>
+      </c>
+      <c r="U3">
+        <v>17</v>
+      </c>
+      <c r="V3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>16</v>
+      </c>
+      <c r="U4">
+        <v>17</v>
+      </c>
+      <c r="V4">
+        <v>18</v>
+      </c>
+    </row>
     <row r="5" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -6085,72 +6271,72 @@
         <v>1</v>
       </c>
       <c r="E6" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="15">
-        <v>1</v>
-      </c>
-      <c r="V6" s="16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="V6" s="15">
+        <v>2</v>
       </c>
       <c r="W6" s="53"/>
       <c r="X6" s="25"/>
       <c r="Y6" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="25"/>
       <c r="AD6" s="25"/>
@@ -6267,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -6367,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -6423,7 +6609,7 @@
       <c r="W9" s="53"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="8">
         <v>1</v>
@@ -6467,13 +6653,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
@@ -6567,16 +6753,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -6585,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" s="8">
         <v>1</v>
@@ -6626,13 +6812,13 @@
         <v>0</v>
       </c>
       <c r="Z11" s="32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="37">
         <v>1</v>
       </c>
       <c r="AB11" s="33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC11" s="25"/>
       <c r="AD11" s="25"/>
@@ -6670,16 +6856,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
@@ -6688,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" s="8">
         <v>1</v>
@@ -6709,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" s="8">
         <v>1</v>
@@ -6723,7 +6909,7 @@
       <c r="W12" s="53"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="37">
         <v>1</v>
@@ -6773,16 +6959,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="8">
         <v>1</v>
@@ -6791,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="8">
         <v>1</v>
@@ -6812,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U13" s="8">
         <v>1</v>
@@ -6876,16 +7062,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="8">
         <v>1</v>
@@ -6894,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" s="8">
         <v>1</v>
@@ -6915,10 +7101,10 @@
         <v>1</v>
       </c>
       <c r="U14" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V14" s="33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W14" s="53"/>
       <c r="X14" s="45"/>
@@ -6967,10 +7153,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -6979,16 +7165,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J15" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="8">
         <v>1</v>
@@ -6997,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P15" s="8">
         <v>1</v>
@@ -7026,10 +7212,10 @@
         <v>1</v>
       </c>
       <c r="Z15" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB15" s="50">
         <v>1</v>
@@ -7073,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="37">
         <v>1</v>
@@ -7082,16 +7268,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K16" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M16" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="8">
         <v>1</v>
@@ -7100,13 +7286,13 @@
         <v>1</v>
       </c>
       <c r="P16" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="8">
         <v>1</v>
@@ -7123,7 +7309,7 @@
       <c r="W16" s="53"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z16" s="39">
         <v>0</v>
@@ -7176,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="37">
         <v>1</v>
@@ -7185,13 +7371,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N17" s="8">
         <v>1</v>
@@ -7279,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" s="37">
         <v>1</v>
@@ -7288,10 +7474,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M18" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N18" s="8">
         <v>1</v>
@@ -7326,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="Z18" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA18" s="40">
         <v>1</v>
@@ -7382,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" s="37">
         <v>1</v>
@@ -7391,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N19" s="8">
         <v>1</v>
@@ -7667,72 +7853,72 @@
         <v>1</v>
       </c>
       <c r="E22" s="28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T22" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U22" s="29">
-        <v>0</v>
-      </c>
-      <c r="V22" s="30">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="V22" s="29">
+        <v>9</v>
       </c>
       <c r="W22" s="45"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z22" s="29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA22" s="29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC22" s="45"/>
       <c r="AD22" s="45"/>
@@ -7767,58 +7953,58 @@
         <v>1</v>
       </c>
       <c r="E23" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U23" s="29">
-        <v>0</v>
-      </c>
-      <c r="V23" s="30">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="V23" s="29">
+        <v>10</v>
       </c>
       <c r="W23" s="45"/>
       <c r="X23" s="45"/>
@@ -7867,58 +8053,58 @@
         <v>1</v>
       </c>
       <c r="E24" s="28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T24" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U24" s="29">
-        <v>0</v>
-      </c>
-      <c r="V24" s="30">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="V24" s="29">
+        <v>11</v>
       </c>
       <c r="W24" s="45"/>
       <c r="X24" s="45"/>
@@ -7967,72 +8153,72 @@
         <v>1</v>
       </c>
       <c r="E25" s="28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T25" s="29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U25" s="29">
-        <v>0</v>
-      </c>
-      <c r="V25" s="30">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="V25" s="29">
+        <v>12</v>
       </c>
       <c r="W25" s="45"/>
       <c r="X25" s="45"/>
       <c r="Y25" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z25" s="29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA25" s="29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB25" s="30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC25" s="45"/>
       <c r="AD25" s="45"/>
@@ -8294,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O28" s="8">
         <v>1</v>
@@ -8394,10 +8580,10 @@
         <v>1</v>
       </c>
       <c r="N29" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O29" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P29" s="8">
         <v>1</v>
@@ -8429,7 +8615,7 @@
         <v>1</v>
       </c>
       <c r="AA29" s="39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB29" s="54">
         <v>1</v>
@@ -8494,13 +8680,13 @@
         <v>1</v>
       </c>
       <c r="N30" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O30" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P30" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="8">
         <v>1</v>
@@ -8509,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T30" s="8">
         <v>1</v>
@@ -8594,16 +8780,16 @@
         <v>1</v>
       </c>
       <c r="N31" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O31" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P31" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R31" s="8">
         <v>1</v>
@@ -8612,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U31" s="8">
         <v>1</v>
@@ -8632,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC31" s="25"/>
       <c r="AD31" s="25"/>
@@ -8685,28 +8871,28 @@
         <v>1</v>
       </c>
       <c r="K32" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L32" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M32" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N32" s="8">
         <v>1</v>
       </c>
       <c r="O32" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P32" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R32" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S32" s="8">
         <v>1</v>
@@ -8715,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V32" s="10">
         <v>1</v>
@@ -8729,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="AA32" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB32" s="54">
         <v>1</v>
@@ -8800,16 +8986,16 @@
         <v>1</v>
       </c>
       <c r="P33" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R33" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S33" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T33" s="8">
         <v>1</v>
@@ -8818,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="V33" s="33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W33" s="25"/>
       <c r="X33" s="45"/>
@@ -8867,10 +9053,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F34" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -8894,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O34" s="37">
         <v>1</v>
@@ -8903,16 +9089,16 @@
         <v>1</v>
       </c>
       <c r="Q34" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R34" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S34" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T34" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U34" s="8">
         <v>1</v>
@@ -8923,10 +9109,10 @@
       <c r="W34" s="25"/>
       <c r="X34" s="25"/>
       <c r="Y34" s="31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z34" s="32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA34" s="40">
         <v>1</v>
@@ -8973,10 +9159,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H35" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I35" s="8">
         <v>1</v>
@@ -8997,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P35" s="37">
         <v>1</v>
@@ -9006,16 +9192,16 @@
         <v>1</v>
       </c>
       <c r="R35" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S35" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T35" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U35" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V35" s="10">
         <v>1</v>
@@ -9032,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="AB35" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC35" s="25"/>
       <c r="AD35" s="25"/>
@@ -9079,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J36" s="8">
         <v>1</v>
@@ -9100,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="37">
         <v>1</v>
@@ -9109,16 +9295,16 @@
         <v>1</v>
       </c>
       <c r="S36" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T36" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U36" s="35">
-        <v>0</v>
-      </c>
-      <c r="V36" s="36">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="V36" s="35">
+        <v>5</v>
       </c>
       <c r="W36" s="25"/>
       <c r="X36" s="45"/>
@@ -9129,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="AA36" s="38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB36" s="42">
         <v>0</v>
@@ -9182,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K37" s="37">
         <v>1</v>
@@ -9203,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R37" s="37">
         <v>1</v>
@@ -9212,13 +9398,13 @@
         <v>1</v>
       </c>
       <c r="T37" s="35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U37" s="35">
-        <v>0</v>
-      </c>
-      <c r="V37" s="36">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="V37" s="35">
+        <v>6</v>
       </c>
       <c r="W37" s="25"/>
       <c r="X37" s="45"/>
@@ -9306,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S38" s="8">
         <v>1</v>
@@ -9315,10 +9501,10 @@
         <v>1</v>
       </c>
       <c r="U38" s="35">
-        <v>0</v>
-      </c>
-      <c r="V38" s="36">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="V38" s="35">
+        <v>7</v>
       </c>
       <c r="W38" s="25"/>
       <c r="X38" s="45"/>
@@ -9332,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="AB38" s="42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC38" s="25"/>
       <c r="AD38" s="25"/>
@@ -9417,8 +9603,8 @@
       <c r="U39" s="8">
         <v>1</v>
       </c>
-      <c r="V39" s="36">
-        <v>0</v>
+      <c r="V39" s="35">
+        <v>8</v>
       </c>
       <c r="W39" s="25"/>
       <c r="X39" s="25"/>
@@ -9558,72 +9744,72 @@
         <v>1</v>
       </c>
       <c r="E41" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U41" s="12">
-        <v>1</v>
-      </c>
-      <c r="V41" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="V41" s="12">
+        <v>3</v>
       </c>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA41" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC41" s="25"/>
       <c r="AD41" s="25"/>
@@ -10519,7 +10705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E667BE1-6618-4C1F-85F4-9D92DFC230A4}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:X32"/>
     </sheetView>
   </sheetViews>
@@ -10527,76 +10713,76 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -10675,7 +10861,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10749,10 +10935,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10823,13 +11009,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10897,16 +11083,16 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -10974,16 +11160,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -11051,16 +11237,16 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -11072,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11099,10 +11285,10 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -11128,16 +11314,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -11149,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -11179,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -11205,16 +11391,16 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -11226,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -11256,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -11282,16 +11468,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -11303,16 +11489,16 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -11333,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -11341,13 +11527,13 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -11359,16 +11545,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -11389,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -11410,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -11424,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -11436,16 +11622,16 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -11466,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -11501,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -11513,13 +11699,13 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -11578,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11590,13 +11776,13 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -11655,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -11667,13 +11853,13 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -11732,10 +11918,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -11744,13 +11930,13 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -11818,16 +12004,16 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -11895,16 +12081,16 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -11913,10 +12099,10 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -11972,16 +12158,16 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -11993,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -12049,16 +12235,16 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -12070,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -12108,10 +12294,10 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12126,16 +12312,16 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -12147,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -12155,16 +12341,16 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -12188,10 +12374,10 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -12203,16 +12389,16 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -12224,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -12241,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -12268,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -12280,16 +12466,16 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -12318,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -12345,7 +12531,7 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -12357,16 +12543,16 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -12395,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -12422,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -12434,16 +12620,16 @@
         <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X26">
         <v>1</v>
@@ -12472,10 +12658,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -12499,10 +12685,10 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -12511,16 +12697,16 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -12588,13 +12774,13 @@
         <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -12665,10 +12851,10 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -12742,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -12821,76 +13007,76 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12902,7 +13088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1DAFAD-CE6C-4732-BD35-8E277BDB0D12}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R36"/>
     </sheetView>
   </sheetViews>
@@ -12910,58 +13096,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -13022,7 +13208,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -13078,10 +13264,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -13134,13 +13320,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -13190,16 +13376,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -13208,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -13249,16 +13435,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -13267,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -13288,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -13308,16 +13494,16 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -13326,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -13347,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -13367,16 +13553,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -13385,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -13406,18 +13592,18 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -13426,16 +13612,16 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -13444,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -13476,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -13485,16 +13671,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -13503,13 +13689,13 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -13535,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -13544,13 +13730,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -13594,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -13603,10 +13789,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -13653,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -13662,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -13806,226 +13992,226 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -14169,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -14225,10 +14411,10 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -14281,13 +14467,13 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -14296,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -14337,16 +14523,16 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -14355,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -14384,28 +14570,28 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -14414,7 +14600,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -14455,16 +14641,16 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -14473,15 +14659,15 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -14505,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -14514,16 +14700,16 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -14540,10 +14726,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -14564,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -14573,16 +14759,16 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R30">
         <v>1</v>
@@ -14602,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -14623,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -14632,16 +14818,16 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -14661,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -14682,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -14691,13 +14877,13 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -14741,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -14750,10 +14936,10 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -14809,7 +14995,7 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -14870,58 +15056,58 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
